--- a/logDirectoryOutput.xlsx
+++ b/logDirectoryOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simeo\Documents\GitHub\srsRAN-version-compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Simeon\Documents\GitHub\srsRAN-version-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAE960-114B-4AF2-BA32-DFABABD8C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F7203-5CB4-4FA5-9D06-7C17E5F50129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2085" yWindow="6210" windowWidth="21600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14430" yWindow="2700" windowWidth="17490" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logDirectoryOutput" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
   <si>
     <t>Num all files</t>
   </si>
@@ -215,11 +215,17 @@
     <t>.h (710), .cc (366), .c (344), .txt (120), .dat (35), .cmake (24), .cpp (20),  (12), .example (9), .bin (7), .sh (6), .in (6), .install (5), .md (4), .yml (3), .manpages (3), .service (3), .data (2), .config (1), .postinst (1), .templates (1), .hpp (1), .rst (1)</t>
   </si>
   <si>
+    <t>.h (743), .cc (391), .c (354), .txt (130), .dat (39), .cmake (24), .cpp (20),  (12), .example (9), .bin (7), .sh (6), .in (6), .install (5), .md (4), .yml (3), .manpages (3), .service (3), .data (2), .config (1), .postinst (1), .templates (1), .hpp (1), .rst (1)</t>
+  </si>
+  <si>
+    <t>srsRAN-release_22_04</t>
+  </si>
+  <si>
+    <t>Num code files (cpp, py, c, cc, h, sh, go, c, js, java)</t>
+  </si>
+  <si>
     <t>Comparison across code files
-(cpp, py, c, h, sh, go, c, js, java)</t>
-  </si>
-  <si>
-    <t>Num code files (cpp, py, c, h, sh, go, c, js, java)</t>
+(cpp, py, c, cc, h, sh, go, c, js, java)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +372,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1127,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1224,13 +1236,13 @@
         <v>549</v>
       </c>
       <c r="C2" s="5">
-        <v>7144113</v>
+        <v>7339930</v>
       </c>
       <c r="D2" s="8">
         <v>482</v>
       </c>
       <c r="E2" s="5">
-        <v>6684189</v>
+        <v>6876270</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1289,13 +1301,13 @@
         <v>571</v>
       </c>
       <c r="C3" s="5">
-        <v>7749258</v>
+        <v>7956235</v>
       </c>
       <c r="D3" s="8">
         <v>503</v>
       </c>
       <c r="E3" s="5">
-        <v>7096192</v>
+        <v>7299272</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -1313,10 +1325,10 @@
         <v>0.55691768826619903</v>
       </c>
       <c r="K3" s="5">
-        <v>3503893</v>
+        <v>3605187</v>
       </c>
       <c r="L3" s="4">
-        <v>0.45215851633795101</v>
+        <v>0.45312726434048201</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>3</v>
@@ -1334,10 +1346,10 @@
         <v>0.58051689860834899</v>
       </c>
       <c r="R3" s="5">
-        <v>3249146</v>
+        <v>3348541</v>
       </c>
       <c r="S3" s="4">
-        <v>0.45787177122603201</v>
+        <v>0.45874999589000098</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>3</v>
@@ -1354,13 +1366,13 @@
         <v>618</v>
       </c>
       <c r="C4" s="5">
-        <v>8467474</v>
+        <v>8695566</v>
       </c>
       <c r="D4" s="8">
         <v>543</v>
       </c>
       <c r="E4" s="5">
-        <v>7801961</v>
+        <v>8025832</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -1378,10 +1390,10 @@
         <v>0.55016181229773398</v>
       </c>
       <c r="K4" s="5">
-        <v>6386938</v>
+        <v>6573984</v>
       </c>
       <c r="L4" s="4">
-        <v>0.75429083100816097</v>
+        <v>0.75601565211511201</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>3</v>
@@ -1399,10 +1411,10 @@
         <v>0.57642725598526701</v>
       </c>
       <c r="R4" s="5">
-        <v>6306087</v>
+        <v>6491051</v>
       </c>
       <c r="S4" s="4">
-        <v>0.80826948506920204</v>
+        <v>0.80876985713132299</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>3</v>
@@ -1419,13 +1431,13 @@
         <v>618</v>
       </c>
       <c r="C5" s="5">
-        <v>8570891</v>
+        <v>8801790</v>
       </c>
       <c r="D5" s="8">
         <v>543</v>
       </c>
       <c r="E5" s="5">
-        <v>7904845</v>
+        <v>8131516</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -1443,10 +1455,10 @@
         <v>0.25728155339805803</v>
       </c>
       <c r="K5" s="5">
-        <v>3418182</v>
+        <v>3518474</v>
       </c>
       <c r="L5" s="4">
-        <v>0.39881291221647702</v>
+        <v>0.39974527908527602</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
@@ -1464,10 +1476,10 @@
         <v>0.27808471454880201</v>
       </c>
       <c r="R5" s="5">
-        <v>3369714</v>
+        <v>3468729</v>
       </c>
       <c r="S5" s="4">
-        <v>0.42628463935725402</v>
+        <v>0.42657838956475003</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>3</v>
@@ -1484,13 +1496,13 @@
         <v>618</v>
       </c>
       <c r="C6" s="5">
-        <v>8578030</v>
+        <v>8808952</v>
       </c>
       <c r="D6" s="8">
         <v>543</v>
       </c>
       <c r="E6" s="5">
-        <v>7911938</v>
+        <v>8138628</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -1508,10 +1520,10 @@
         <v>0.44983818770226502</v>
       </c>
       <c r="K6" s="5">
-        <v>3230705</v>
+        <v>3316700</v>
       </c>
       <c r="L6" s="4">
-        <v>0.37662551891285001</v>
+        <v>0.37651470912771401</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
@@ -1529,10 +1541,10 @@
         <v>0.500920810313075</v>
       </c>
       <c r="R6" s="5">
-        <v>3220329</v>
+        <v>3305988</v>
       </c>
       <c r="S6" s="4">
-        <v>0.40702151609378101</v>
+        <v>0.406209498701746</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>3</v>
@@ -1549,13 +1561,13 @@
         <v>649</v>
       </c>
       <c r="C7" s="5">
-        <v>8999162</v>
+        <v>9242952</v>
       </c>
       <c r="D7" s="8">
         <v>564</v>
       </c>
       <c r="E7" s="5">
-        <v>8293572</v>
+        <v>8532289</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -1573,10 +1585,10 @@
         <v>0.46687211093990699</v>
       </c>
       <c r="K7" s="5">
-        <v>6574956</v>
+        <v>6766159</v>
       </c>
       <c r="L7" s="4">
-        <v>0.73061869538519197</v>
+        <v>0.73203441930673196</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
@@ -1594,10 +1606,10 @@
         <v>0.47163120567375799</v>
       </c>
       <c r="R7" s="5">
-        <v>6412981</v>
+        <v>6600281</v>
       </c>
       <c r="S7" s="4">
-        <v>0.77324716057206699</v>
+        <v>0.77356510076018203</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>3</v>
@@ -1614,13 +1626,13 @@
         <v>651</v>
       </c>
       <c r="C8" s="5">
-        <v>8980624</v>
+        <v>9224173</v>
       </c>
       <c r="D8" s="8">
         <v>564</v>
       </c>
       <c r="E8" s="5">
-        <v>8297644</v>
+        <v>8536495</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
@@ -1638,10 +1650,10 @@
         <v>6.2980030721966201E-2</v>
       </c>
       <c r="K8" s="5">
-        <v>700133</v>
+        <v>721856</v>
       </c>
       <c r="L8" s="4">
-        <v>7.7960395625070095E-2</v>
+        <v>7.8256988458477506E-2</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
@@ -1659,10 +1671,10 @@
         <v>5.1418439716311999E-2</v>
       </c>
       <c r="R8" s="5">
-        <v>671489</v>
+        <v>692489</v>
       </c>
       <c r="S8" s="4">
-        <v>8.0925260230494303E-2</v>
+        <v>8.1120998723715004E-2</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>3</v>
@@ -1679,13 +1691,13 @@
         <v>652</v>
       </c>
       <c r="C9" s="5">
-        <v>9076873</v>
+        <v>9326763</v>
       </c>
       <c r="D9" s="8">
         <v>565</v>
       </c>
       <c r="E9" s="5">
-        <v>8391405</v>
+        <v>8636533</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>3</v>
@@ -1703,10 +1715,10 @@
         <v>0.317484662576687</v>
       </c>
       <c r="K9" s="5">
-        <v>3130406</v>
+        <v>3225775</v>
       </c>
       <c r="L9" s="4">
-        <v>0.34487713995778002</v>
+        <v>0.34586222465393401</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -1724,10 +1736,10 @@
         <v>0.32743362831858402</v>
       </c>
       <c r="R9" s="5">
-        <v>3063429</v>
+        <v>3156951</v>
       </c>
       <c r="S9" s="4">
-        <v>0.36506747082282398</v>
+        <v>0.36553452641239198</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>3</v>
@@ -1744,13 +1756,13 @@
         <v>684</v>
       </c>
       <c r="C10" s="5">
-        <v>15349464</v>
+        <v>15803137</v>
       </c>
       <c r="D10" s="8">
         <v>582</v>
       </c>
       <c r="E10" s="5">
-        <v>14655314</v>
+        <v>15103974</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
@@ -1768,10 +1780,10 @@
         <v>0.323099415204678</v>
       </c>
       <c r="K10" s="5">
-        <v>11664060</v>
+        <v>12023134</v>
       </c>
       <c r="L10" s="4">
-        <v>0.75990015025931801</v>
+        <v>0.76080679424597697</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
@@ -1789,10 +1801,10 @@
         <v>0.29553264604810903</v>
       </c>
       <c r="R10" s="5">
-        <v>11571373</v>
+        <v>11927817</v>
       </c>
       <c r="S10" s="4">
-        <v>0.78956841184023696</v>
+        <v>0.78971381968745402</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>3</v>
@@ -1809,13 +1821,13 @@
         <v>682</v>
       </c>
       <c r="C11" s="5">
-        <v>15058290</v>
+        <v>15487524</v>
       </c>
       <c r="D11" s="8">
         <v>584</v>
       </c>
       <c r="E11" s="5">
-        <v>14372206</v>
+        <v>14796291</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -1833,10 +1845,10 @@
         <v>0.96334310850439797</v>
       </c>
       <c r="K11" s="5">
-        <v>13697400</v>
+        <v>14103544</v>
       </c>
       <c r="L11" s="4">
-        <v>0.90962519648645301</v>
+        <v>0.91063904081762803</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>3</v>
@@ -1854,10 +1866,10 @@
         <v>0.91780821917808197</v>
       </c>
       <c r="R11" s="5">
-        <v>13522334</v>
+        <v>13923844</v>
       </c>
       <c r="S11" s="4">
-        <v>0.94086697616218395</v>
+        <v>0.94103610154733996</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>3</v>
@@ -1874,13 +1886,13 @@
         <v>724</v>
       </c>
       <c r="C12" s="5">
-        <v>15120882</v>
+        <v>15551349</v>
       </c>
       <c r="D12" s="8">
         <v>621</v>
       </c>
       <c r="E12" s="5">
-        <v>14426916</v>
+        <v>14852030</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
@@ -1898,10 +1910,10 @@
         <v>0.47790055248618701</v>
       </c>
       <c r="K12" s="5">
-        <v>12389971</v>
+        <v>12752276</v>
       </c>
       <c r="L12" s="4">
-        <v>0.81939472842920102</v>
+        <v>0.82001091995298903</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
@@ -1919,10 +1931,10 @@
         <v>0.48953301127214099</v>
       </c>
       <c r="R12" s="5">
-        <v>12294988</v>
+        <v>12654823</v>
       </c>
       <c r="S12" s="4">
-        <v>0.85222565931623895</v>
+        <v>0.85206015608640695</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>3</v>
@@ -1939,13 +1951,13 @@
         <v>795</v>
       </c>
       <c r="C13" s="5">
-        <v>15590434</v>
+        <v>16036693</v>
       </c>
       <c r="D13" s="8">
         <v>686</v>
       </c>
       <c r="E13" s="5">
-        <v>14883907</v>
+        <v>15324470</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
@@ -1963,10 +1975,10 @@
         <v>0.37484276729559701</v>
       </c>
       <c r="K13" s="5">
-        <v>10254355</v>
+        <v>10561773</v>
       </c>
       <c r="L13" s="4">
-        <v>0.657733774441429</v>
+        <v>0.65860043588787198</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
@@ -1984,10 +1996,10 @@
         <v>0.395043731778425</v>
       </c>
       <c r="R13" s="5">
-        <v>10176993</v>
+        <v>10482370</v>
       </c>
       <c r="S13" s="4">
-        <v>0.68375816914201304</v>
+        <v>0.68402822414086695</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>3</v>
@@ -2004,13 +2016,13 @@
         <v>892</v>
       </c>
       <c r="C14" s="5">
-        <v>41415591</v>
+        <v>42040984</v>
       </c>
       <c r="D14" s="8">
         <v>764</v>
       </c>
       <c r="E14" s="5">
-        <v>20783393</v>
+        <v>21402651</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
@@ -2028,10 +2040,10 @@
         <v>0.80829596412556004</v>
       </c>
       <c r="K14" s="5">
-        <v>40483357</v>
+        <v>41096183</v>
       </c>
       <c r="L14" s="4">
-        <v>0.97749074738544695</v>
+        <v>0.97752666778684305</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>3</v>
@@ -2049,10 +2061,10 @@
         <v>0.87827225130889996</v>
       </c>
       <c r="R14" s="5">
-        <v>20458224</v>
+        <v>21067912</v>
       </c>
       <c r="S14" s="4">
-        <v>0.98435438332903502</v>
+        <v>0.98435992812292195</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>3</v>
@@ -2069,13 +2081,13 @@
         <v>993</v>
       </c>
       <c r="C15" s="5">
-        <v>31906640</v>
+        <v>32615310</v>
       </c>
       <c r="D15" s="8">
         <v>850</v>
       </c>
       <c r="E15" s="5">
-        <v>23243592</v>
+        <v>23945561</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -2093,10 +2105,10 @@
         <v>0.93655589123867</v>
       </c>
       <c r="K15" s="5">
-        <v>30743599</v>
+        <v>31444166</v>
       </c>
       <c r="L15" s="4">
-        <v>0.96354862185425905</v>
+        <v>0.96409220087130798</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>3</v>
@@ -2114,10 +2126,10 @@
         <v>0.93647058823529405</v>
       </c>
       <c r="R15" s="5">
-        <v>22980455</v>
+        <v>23674863</v>
       </c>
       <c r="S15" s="4">
-        <v>0.98867915940014695</v>
+        <v>0.98869527425145698</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>3</v>
@@ -2134,13 +2146,13 @@
         <v>996</v>
       </c>
       <c r="C16" s="5">
-        <v>31891398</v>
+        <v>32599028</v>
       </c>
       <c r="D16" s="8">
         <v>853</v>
       </c>
       <c r="E16" s="5">
-        <v>23228498</v>
+        <v>23929427</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
@@ -2158,10 +2170,10 @@
         <v>9.1365461847389501E-2</v>
       </c>
       <c r="K16" s="5">
-        <v>4007870</v>
+        <v>4128733</v>
       </c>
       <c r="L16" s="4">
-        <v>0.12567244621888299</v>
+        <v>0.126652027784386</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
@@ -2179,10 +2191,10 @@
         <v>9.9648300117233204E-2</v>
       </c>
       <c r="R16" s="5">
-        <v>3951538</v>
+        <v>4070927</v>
       </c>
       <c r="S16" s="4">
-        <v>0.170115949813027</v>
+        <v>0.17012220977961501</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>3</v>
@@ -2199,13 +2211,13 @@
         <v>996</v>
       </c>
       <c r="C17" s="5">
-        <v>31890628</v>
+        <v>32598249</v>
       </c>
       <c r="D17" s="8">
         <v>853</v>
       </c>
       <c r="E17" s="5">
-        <v>23227566</v>
+        <v>23928482</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
@@ -2223,10 +2235,10 @@
         <v>7.0281124497991896E-3</v>
       </c>
       <c r="K17" s="5">
-        <v>128243</v>
+        <v>131646</v>
       </c>
       <c r="L17" s="4">
-        <v>4.0213381812361903E-3</v>
+        <v>4.0384377700777704E-3</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>3</v>
@@ -2244,10 +2256,10 @@
         <v>5.8616647127784204E-3</v>
       </c>
       <c r="R17" s="5">
-        <v>120349</v>
+        <v>123524</v>
       </c>
       <c r="S17" s="4">
-        <v>5.1813005288629897E-3</v>
+        <v>5.1622163077457203E-3</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>3</v>
@@ -2264,13 +2276,13 @@
         <v>1146</v>
       </c>
       <c r="C18" s="5">
-        <v>32981298</v>
+        <v>33722765</v>
       </c>
       <c r="D18" s="8">
         <v>997</v>
       </c>
       <c r="E18" s="5">
-        <v>24319677</v>
+        <v>25054358</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
@@ -2288,10 +2300,10 @@
         <v>0.528795811518324</v>
       </c>
       <c r="K18" s="5">
-        <v>10675974</v>
+        <v>10998171</v>
       </c>
       <c r="L18" s="4">
-        <v>0.323697812014554</v>
+        <v>0.32613491212835</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
@@ -2309,10 +2321,10 @@
         <v>0.54262788365095205</v>
       </c>
       <c r="R18" s="5">
-        <v>10444106</v>
+        <v>10760573</v>
       </c>
       <c r="S18" s="4">
-        <v>0.429450851670439</v>
+        <v>0.42948907331810299</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>3</v>
@@ -2329,13 +2341,13 @@
         <v>1146</v>
       </c>
       <c r="C19" s="5">
-        <v>32981299</v>
+        <v>33722767</v>
       </c>
       <c r="D19" s="8">
         <v>997</v>
       </c>
       <c r="E19" s="5">
-        <v>24319618</v>
+        <v>25054297</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>3</v>
@@ -2353,10 +2365,10 @@
         <v>5.2356020942408302E-3</v>
       </c>
       <c r="K19" s="5">
-        <v>94872</v>
+        <v>97618</v>
       </c>
       <c r="L19" s="4">
-        <v>2.8765392169665602E-3</v>
+        <v>2.8947209462378901E-3</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
@@ -2374,10 +2386,10 @@
         <v>3.0090270812437301E-3</v>
       </c>
       <c r="R19" s="5">
-        <v>66049</v>
+        <v>68036</v>
       </c>
       <c r="S19" s="4">
-        <v>2.7158732509696402E-3</v>
+        <v>2.7155421682755602E-3</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>3</v>
@@ -2394,43 +2406,43 @@
         <v>1495</v>
       </c>
       <c r="C20" s="5">
-        <v>44432804</v>
+        <v>45298799</v>
       </c>
       <c r="D20" s="8">
         <v>1328</v>
       </c>
       <c r="E20" s="5">
-        <v>29106137</v>
+        <v>29962251</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="7">
-        <v>474593</v>
+        <v>657894</v>
       </c>
       <c r="H20" s="7">
-        <v>350843</v>
+        <v>534144</v>
       </c>
       <c r="I20" s="8">
-        <v>1555</v>
+        <v>1731</v>
       </c>
       <c r="J20" s="4">
-        <v>1.04013377926421</v>
+        <v>1.1578595317725699</v>
       </c>
       <c r="K20" s="5">
-        <v>36016274</v>
+        <v>36881334</v>
       </c>
       <c r="L20" s="4">
-        <v>0.81057846360540198</v>
+        <v>0.814179069074215</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>469732</v>
+        <v>652830</v>
       </c>
       <c r="O20" s="7">
-        <v>141366</v>
+        <v>45388</v>
       </c>
       <c r="P20" s="8">
         <v>1307</v>
@@ -2439,10 +2451,10 @@
         <v>0.98418674698795106</v>
       </c>
       <c r="R20" s="5">
-        <v>29026428</v>
+        <v>29880175</v>
       </c>
       <c r="S20" s="4">
-        <v>0.99726143665165801</v>
+        <v>0.99726068645509902</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>3</v>
@@ -2459,13 +2471,13 @@
         <v>1496</v>
       </c>
       <c r="C21" s="5">
-        <v>44441464</v>
+        <v>45307668</v>
       </c>
       <c r="D21" s="8">
         <v>1329</v>
       </c>
       <c r="E21" s="5">
-        <v>29114451</v>
+        <v>29970761</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>3</v>
@@ -2483,10 +2495,10 @@
         <v>2.27272727272727E-2</v>
       </c>
       <c r="K21" s="5">
-        <v>674015</v>
+        <v>691534</v>
       </c>
       <c r="L21" s="4">
-        <v>1.51663545557365E-2</v>
+        <v>1.5263067611425001E-2</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>3</v>
@@ -2504,10 +2516,10 @@
         <v>2.1820917983446202E-2</v>
       </c>
       <c r="R21" s="5">
-        <v>621632</v>
+        <v>637848</v>
       </c>
       <c r="S21" s="4">
-        <v>2.1351321376453201E-2</v>
+        <v>2.1282342480392801E-2</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>3</v>
@@ -2524,13 +2536,13 @@
         <v>1684</v>
       </c>
       <c r="C22" s="5">
-        <v>55886340</v>
+        <v>56814272</v>
       </c>
       <c r="D22" s="8">
         <v>1489</v>
       </c>
       <c r="E22" s="5">
-        <v>31371407</v>
+        <v>32288674</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>3</v>
@@ -2548,10 +2560,10 @@
         <v>0.59738717339667402</v>
       </c>
       <c r="K22" s="5">
-        <v>23161592</v>
+        <v>23570550</v>
       </c>
       <c r="L22" s="4">
-        <v>0.41444102440775299</v>
+        <v>0.41487022838205101</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>3</v>
@@ -2569,10 +2581,10 @@
         <v>0.59637340496977798</v>
       </c>
       <c r="R22" s="5">
-        <v>13752636</v>
+        <v>14155187</v>
       </c>
       <c r="S22" s="4">
-        <v>0.43838123039875099</v>
+        <v>0.43839480679819798</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>3</v>
@@ -2581,48 +2593,92 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1766</v>
+      </c>
+      <c r="C23" s="5">
+        <v>57458097</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1557</v>
+      </c>
+      <c r="E23" s="5">
+        <v>32433362</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>56916</v>
+      </c>
+      <c r="H23" s="7">
+        <v>30765</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1677</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.94960362400905995</v>
+      </c>
+      <c r="K23" s="5">
+        <v>32521114</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.56599706043170905</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>56010</v>
+      </c>
+      <c r="O23" s="7">
+        <v>23783</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1508</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.96852922286448295</v>
+      </c>
+      <c r="R23" s="5">
+        <v>31679382</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.976752949632542</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="N24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="N25" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -2630,8 +2686,8 @@
       <c r="S25" s="11"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>15</v>
+      <c r="A26" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2651,8 +2707,8 @@
       <c r="S26" s="11"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>17</v>
+      <c r="A27" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2672,8 +2728,8 @@
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>16</v>
+      <c r="A28" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2692,11 +2748,32 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G24:L28"/>
-    <mergeCell ref="N24:S28"/>
-    <mergeCell ref="B24:E28"/>
+    <mergeCell ref="G25:L29"/>
+    <mergeCell ref="N25:S29"/>
+    <mergeCell ref="B25:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2704,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEFFBAC-CDDA-4D6D-95A5-D1E736691CE2}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,7 +2965,16 @@
         <v>63</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/logDirectoryOutput.xlsx
+++ b/logDirectoryOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Simeon\Documents\GitHub\srsRAN-version-compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simeo\Documents\GitHub\srsRAN-version-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F7203-5CB4-4FA5-9D06-7C17E5F50129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70501300-5851-4C98-80F8-A1915ED27D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="2700" windowWidth="17490" windowHeight="10635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="2175" windowWidth="18510" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logDirectoryOutput" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
   <si>
     <t>Num all files</t>
   </si>
@@ -226,6 +226,12 @@
   <si>
     <t>Comparison across code files
 (cpp, py, c, cc, h, sh, go, c, js, java)</t>
+  </si>
+  <si>
+    <t>srsRAN-release_22_04_1</t>
+  </si>
+  <si>
+    <t>.h (743), .cc (392), .c (354), .txt (130), .dat (39), .cmake (24), .cpp (20),  (12), .example (9), .bin (7), .sh (6), .in (6), .install (5), .md (4), .yml (3), .manpages (3), .service (3), .data (2), .config (1), .postinst (1), .templates (1), .hpp (1), .rst (1)</t>
   </si>
 </sst>
 </file>
@@ -1139,11 +1145,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2418,16 +2422,16 @@
         <v>3</v>
       </c>
       <c r="G20" s="7">
-        <v>657894</v>
+        <v>474593</v>
       </c>
       <c r="H20" s="7">
-        <v>534144</v>
+        <v>350843</v>
       </c>
       <c r="I20" s="8">
-        <v>1731</v>
+        <v>1555</v>
       </c>
       <c r="J20" s="4">
-        <v>1.1578595317725699</v>
+        <v>1.04013377926421</v>
       </c>
       <c r="K20" s="5">
         <v>36881334</v>
@@ -2439,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>652830</v>
+        <v>469732</v>
       </c>
       <c r="O20" s="7">
-        <v>45388</v>
+        <v>141366</v>
       </c>
       <c r="P20" s="8">
         <v>1307</v>
@@ -2601,13 +2605,13 @@
         <v>1766</v>
       </c>
       <c r="C23" s="5">
-        <v>57458097</v>
+        <v>58412178</v>
       </c>
       <c r="D23" s="8">
         <v>1557</v>
       </c>
       <c r="E23" s="5">
-        <v>32433362</v>
+        <v>33376387</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -2625,10 +2629,10 @@
         <v>0.94960362400905995</v>
       </c>
       <c r="K23" s="5">
-        <v>32521114</v>
+        <v>33450044</v>
       </c>
       <c r="L23" s="4">
-        <v>0.56599706043170905</v>
+        <v>0.57265531170572004</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>3</v>
@@ -2646,10 +2650,10 @@
         <v>0.96852922286448295</v>
       </c>
       <c r="R23" s="5">
-        <v>31679382</v>
+        <v>32599561</v>
       </c>
       <c r="S23" s="4">
-        <v>0.976752949632542</v>
+        <v>0.976725281858698</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>3</v>
@@ -2658,57 +2662,101 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1767</v>
+      </c>
+      <c r="C24" s="5">
+        <v>57652163</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1558</v>
+      </c>
+      <c r="E24" s="5">
+        <v>32626111</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5752</v>
+      </c>
+      <c r="H24" s="7">
+        <v>815</v>
+      </c>
+      <c r="I24" s="8">
+        <v>87</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4.9235993208828502E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2540767</v>
+      </c>
+      <c r="L24" s="4">
+        <v>4.4070627497532003E-2</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5529</v>
+      </c>
+      <c r="O24" s="7">
+        <v>781</v>
+      </c>
+      <c r="P24" s="8">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>4.7496790757381203E-2</v>
+      </c>
+      <c r="R24" s="5">
+        <v>2423009</v>
+      </c>
+      <c r="S24" s="4">
+        <v>7.4265946070005098E-2</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="N25" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
+      <c r="N26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>15</v>
+      <c r="A27" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2720,16 +2768,16 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>17</v>
+      <c r="A28" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2741,16 +2789,16 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>16</v>
+      <c r="A29" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2762,18 +2810,39 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G25:L29"/>
-    <mergeCell ref="N25:S29"/>
-    <mergeCell ref="B25:E29"/>
+    <mergeCell ref="G26:L30"/>
+    <mergeCell ref="N26:S30"/>
+    <mergeCell ref="B26:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2781,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEFFBAC-CDDA-4D6D-95A5-D1E736691CE2}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A1:B23"/>
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,6 +3042,14 @@
         <v>64</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/logDirectoryOutput.xlsx
+++ b/logDirectoryOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simeo\Documents\GitHub\srsRAN-version-compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e0e0414073b2b33/Documents/GitHub/srsRAN-version-compare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70501300-5851-4C98-80F8-A1915ED27D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{70501300-5851-4C98-80F8-A1915ED27D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED18481-6B4A-4020-994F-AD3198AC249B}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="2175" windowWidth="18510" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="0" windowWidth="19200" windowHeight="11300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logDirectoryOutput" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
   <si>
     <t>Num all files</t>
   </si>
@@ -232,6 +232,21 @@
   </si>
   <si>
     <t>.h (743), .cc (392), .c (354), .txt (130), .dat (39), .cmake (24), .cpp (20),  (12), .example (9), .bin (7), .sh (6), .in (6), .install (5), .md (4), .yml (3), .manpages (3), .service (3), .data (2), .config (1), .postinst (1), .templates (1), .hpp (1), .rst (1)</t>
+  </si>
+  <si>
+    <t>srsRAN-release_22_10</t>
+  </si>
+  <si>
+    <t>srsRAN-release_23_04</t>
+  </si>
+  <si>
+    <t>srsRAN-release_23_04_1</t>
+  </si>
+  <si>
+    <t>.h (743), .cc (392), .c (354), .txt (130), .dat (39), .cmake (23), .cpp (20),  (12), .example (9), .bin (7), .sh (6), .in (6), .install (5), .md (4), .manpages (3), .service (3), .yml (2), .data (2), .config (1), .postinst (1), .templates (1), .hpp (1), .rst (1)</t>
+  </si>
+  <si>
+    <t>.h (757), .cc (399), .c (354), .txt (132), .dat (39), .cpp (24), .cmake (23),  (12), .example (9), .bin (7), .sh (6), .in (6), .install (5), .md (4), .manpages (3), .service (3), .yml (2), .data (2), .config (1), .postinst (1), .templates (1), .hpp (1), .rst (1)</t>
   </si>
 </sst>
 </file>
@@ -1145,29 +1160,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="S15" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:S27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="1.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="255.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="1.7265625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="1.7265625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7265625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="1.7265625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="255.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,7 +1379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1427,7 +1444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1509,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1557,7 +1574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,7 +1704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1752,7 +1769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1817,7 +1834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +1899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2012,7 +2029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2077,7 +2094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2142,7 +2159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2207,7 +2224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2272,7 +2289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2337,7 +2354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,7 +2419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -2467,7 +2484,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -2532,7 +2549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -2597,7 +2614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -2662,7 +2679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -2670,13 +2687,13 @@
         <v>1767</v>
       </c>
       <c r="C24" s="5">
-        <v>57652163</v>
+        <v>58611182</v>
       </c>
       <c r="D24" s="8">
         <v>1558</v>
       </c>
       <c r="E24" s="5">
-        <v>32626111</v>
+        <v>33574041</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>3</v>
@@ -2694,10 +2711,10 @@
         <v>4.9235993208828502E-2</v>
       </c>
       <c r="K24" s="5">
-        <v>2540767</v>
+        <v>2608319</v>
       </c>
       <c r="L24" s="4">
-        <v>4.4070627497532003E-2</v>
+        <v>4.4502071294177201E-2</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>3</v>
@@ -2715,10 +2732,10 @@
         <v>4.7496790757381203E-2</v>
       </c>
       <c r="R24" s="5">
-        <v>2423009</v>
+        <v>2487643</v>
       </c>
       <c r="S24" s="4">
-        <v>7.4265946070005098E-2</v>
+        <v>7.4094238462388204E-2</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>3</v>
@@ -2727,99 +2744,231 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1765</v>
+      </c>
+      <c r="C25" s="5">
+        <v>57659189</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1557</v>
+      </c>
+      <c r="E25" s="5">
+        <v>32632652</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7">
+        <v>576</v>
+      </c>
+      <c r="H25" s="7">
+        <v>426</v>
+      </c>
+      <c r="I25" s="8">
+        <v>61</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3.4560906515580699E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1439527</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2.49661333252536E-2</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="7">
+        <v>471</v>
+      </c>
+      <c r="O25" s="7">
+        <v>272</v>
+      </c>
+      <c r="P25" s="8">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>3.2755298651252401E-2</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1370728</v>
+      </c>
+      <c r="S25" s="4">
+        <v>4.2004799364758899E-2</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1792</v>
+      </c>
+      <c r="C26" s="5">
+        <v>60362196</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1582</v>
+      </c>
+      <c r="E26" s="5">
+        <v>35332841</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>101548</v>
+      </c>
+      <c r="H26" s="7">
+        <v>18273</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1670</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.93191964285714202</v>
+      </c>
+      <c r="K26" s="5">
+        <v>34724537</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.57526961080077299</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7">
+        <v>101281</v>
+      </c>
+      <c r="O26" s="7">
+        <v>18119</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1532</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.96839443742098597</v>
+      </c>
+      <c r="R26" s="5">
+        <v>34378402</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0.97298719907634901</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1792</v>
+      </c>
+      <c r="C27" s="5">
+        <v>60361762</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1582</v>
+      </c>
+      <c r="E27" s="5">
+        <v>35332407</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7">
         <v>19</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="I27" s="8">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.1160714285714201E-3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>130119</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2.1556527789894499E-3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7</v>
+      </c>
+      <c r="O27" s="7">
+        <v>19</v>
+      </c>
+      <c r="P27" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1.2642225031605501E-3</v>
+      </c>
+      <c r="R27" s="5">
+        <v>130119</v>
+      </c>
+      <c r="S27" s="4">
+        <v>3.6827097570793798E-3</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="N26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>16</v>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2838,11 +2987,74 @@
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
     </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G26:L30"/>
-    <mergeCell ref="N26:S30"/>
-    <mergeCell ref="B26:E30"/>
+    <mergeCell ref="G29:L33"/>
+    <mergeCell ref="N29:S33"/>
+    <mergeCell ref="B29:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2850,15 +3062,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEFFBAC-CDDA-4D6D-95A5-D1E736691CE2}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2866,7 +3078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2874,7 +3086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2882,7 +3094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2890,7 +3102,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2898,7 +3110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2906,7 +3118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2914,7 +3126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2922,7 +3134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2930,7 +3142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2938,7 +3150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2946,7 +3158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2954,7 +3166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2962,7 +3174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2970,7 +3182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2978,7 +3190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2986,7 +3198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2994,7 +3206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -3002,7 +3214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -3010,7 +3222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -3018,7 +3230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -3026,7 +3238,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -3034,7 +3246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,12 +3254,36 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
